--- a/CourseProposal/json_output/instructional_methods_dataframe.xlsx
+++ b/CourseProposal/json_output/instructional_methods_dataframe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
   <si>
     <t>LU#</t>
   </si>
@@ -43,10 +43,7 @@
     <t>LU5</t>
   </si>
   <si>
-    <t>LU6</t>
-  </si>
-  <si>
-    <t>Classroom</t>
+    <t>Lecture</t>
   </si>
   <si>
     <t>Didactic Questioning</t>
@@ -55,7 +52,7 @@
     <t>Demonstration</t>
   </si>
   <si>
-    <t>Practical</t>
+    <t>Practice</t>
   </si>
   <si>
     <t>Classroom Facilitated Training</t>
@@ -416,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,13 +438,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -455,13 +452,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -469,13 +466,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -483,13 +480,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -497,13 +494,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -511,13 +508,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -525,13 +522,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -539,13 +536,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -553,13 +550,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -567,13 +564,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -581,13 +578,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -595,13 +592,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -609,13 +606,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -623,13 +620,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -637,13 +634,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -651,13 +648,13 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -665,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -679,13 +676,13 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -693,13 +690,13 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -707,69 +704,13 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25">
-        <v>70</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/CourseProposal/json_output/instructional_methods_dataframe.xlsx
+++ b/CourseProposal/json_output/instructional_methods_dataframe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
   <si>
     <t>LU#</t>
   </si>
@@ -40,19 +40,16 @@
     <t>LU4</t>
   </si>
   <si>
-    <t>LU5</t>
-  </si>
-  <si>
-    <t>Lecture</t>
-  </si>
-  <si>
-    <t>Didactic Questioning</t>
-  </si>
-  <si>
-    <t>Demonstration</t>
-  </si>
-  <si>
-    <t>Practice</t>
+    <t>Classroom</t>
+  </si>
+  <si>
+    <t>Peer Sharing</t>
+  </si>
+  <si>
+    <t>Group Discussion</t>
+  </si>
+  <si>
+    <t>Case Study</t>
   </si>
   <si>
     <t>Classroom Facilitated Training</t>
@@ -413,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,13 +435,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -452,13 +449,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -466,13 +463,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -480,13 +477,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -494,13 +491,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -508,13 +505,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -522,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -536,13 +533,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -550,13 +547,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -564,13 +561,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -578,13 +575,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -592,13 +589,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -606,13 +603,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -620,13 +617,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -634,13 +631,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -648,69 +645,13 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>90</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>90</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>90</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>90</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
